--- a/Data/general/rdata.xlsx
+++ b/Data/general/rdata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SNyimbili\OneDrive - Right to Care\Documents\RTCZ\RTCZ\Data Analytics &amp; GIS\R\RTCZ\Data\RTC\General\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://righttocare-my.sharepoint.com/personal/shida_nyimbili_righttocare-zambia_org/Documents/Documents/RTCZ/RTCZ/R/RTCZ/Data/general/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{C198B077-8E59-4AA1-BBA2-06E0417A01B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{208FEADF-1338-4DE5-8F55-E4712CB5672E}"/>
+    <workbookView minimized="1" xWindow="3750" yWindow="3900" windowWidth="14400" windowHeight="7365" xr2:uid="{208FEADF-1338-4DE5-8F55-E4712CB5672E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -450,7 +450,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
